--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/snwe_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/snwe_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -359,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,167 +379,167 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -627,9 +627,17 @@
     </row>
     <row r="33">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>130</v>
       </c>
     </row>
@@ -640,7 +648,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,175 +668,175 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -836,7 +844,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -844,7 +852,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -852,7 +860,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -860,7 +868,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -868,7 +876,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -876,7 +884,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -884,7 +892,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -892,7 +900,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -900,7 +908,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -908,9 +916,17 @@
     </row>
     <row r="33">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>130</v>
       </c>
     </row>
@@ -921,7 +937,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -941,191 +957,191 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -1133,7 +1149,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -1141,7 +1157,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -1149,7 +1165,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -1157,7 +1173,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -1165,7 +1181,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -1173,7 +1189,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -1181,7 +1197,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1189,9 +1205,17 @@
     </row>
     <row r="33">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>130</v>
       </c>
     </row>
@@ -1202,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1222,215 +1246,215 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -1438,7 +1462,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -1446,7 +1470,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -1454,7 +1478,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -1462,7 +1486,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1470,9 +1494,17 @@
     </row>
     <row r="33">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>130</v>
       </c>
     </row>
@@ -1483,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1503,231 +1535,231 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -1735,7 +1767,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -1743,7 +1775,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1751,9 +1783,17 @@
     </row>
     <row r="33">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>130</v>
       </c>
     </row>
@@ -1764,7 +1804,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1784,247 +1824,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -2032,9 +2072,17 @@
     </row>
     <row r="33">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>130</v>
       </c>
     </row>
@@ -2045,7 +2093,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2065,257 +2113,265 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>130</v>
       </c>
     </row>
@@ -2326,7 +2382,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2346,257 +2402,265 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>129</v>
       </c>
     </row>
@@ -2607,7 +2671,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2627,257 +2691,265 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>127</v>
       </c>
     </row>
